--- a/results/descriptive/tableonevalues.xlsx
+++ b/results/descriptive/tableonevalues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuxind/Documents/GitHub/betaRadiation_CVD/results/descriptive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DC70D1-CCBB-E14E-BD65-DD99C098D2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1AD85A-E67C-0D4C-92E5-8333743E741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1200" windowWidth="27040" windowHeight="16440" activeTab="1" xr2:uid="{9A3EFEC1-9521-8E42-BFD7-F9E76E5D40CB}"/>
+    <workbookView xWindow="860" yWindow="1220" windowWidth="27040" windowHeight="16440" activeTab="1" xr2:uid="{9A3EFEC1-9521-8E42-BFD7-F9E76E5D40CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>mean</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>*100(%)</t>
+  </si>
+  <si>
+    <t>round first 2</t>
   </si>
 </sst>
 </file>
@@ -182,9 +185,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +236,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7090F7C6-84FB-4E42-85E4-37207B2E3C1A}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2535,7 +2544,7 @@
         <v>2816.64512488951</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" ref="L20:Q20" si="6">C20</f>
+        <f t="shared" ref="L20:Q32" si="6">C20</f>
         <v>5108.2455569084004</v>
       </c>
       <c r="M20" s="2">
@@ -2584,6 +2593,37 @@
       <c r="H21">
         <v>10</v>
       </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="2">
+        <f>B21</f>
+        <v>3.8613552594272802</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6524830348820503</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2610,6 +2650,37 @@
       <c r="H22">
         <v>3</v>
       </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" ref="K22:K32" si="7">B22</f>
+        <v>0.845477743124468</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="6"/>
+        <v>1.34291735242911</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -2636,6 +2707,37 @@
       <c r="H23">
         <v>2</v>
       </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="7"/>
+        <v>0.48242132123617798</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="6"/>
+        <v>0.894183057861204</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2662,6 +2764,37 @@
       <c r="H24">
         <v>46</v>
       </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="7"/>
+        <v>18.2935922880635</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="6"/>
+        <v>19.618359942698099</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2688,6 +2821,37 @@
       <c r="H25">
         <v>26</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="7"/>
+        <v>10.702863623476</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="6"/>
+        <v>11.6604763842338</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2714,6 +2878,37 @@
       <c r="H26">
         <v>6</v>
       </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4112560249503798</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="6"/>
+        <v>3.1904424980812398</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2740,6 +2935,37 @@
       <c r="H27">
         <v>6</v>
       </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="7"/>
+        <v>2.32378792174653</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9419080969050202</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2766,6 +2992,37 @@
       <c r="H28">
         <v>106</v>
       </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="7"/>
+        <v>45.042245534448497</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="6"/>
+        <v>45.228780899967397</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2792,6 +3049,37 @@
       <c r="H29">
         <v>29</v>
       </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="7"/>
+        <v>11.856393535582599</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="6"/>
+        <v>12.9485207352713</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2818,6 +3106,37 @@
       <c r="H30">
         <v>5</v>
       </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9448539835554299</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="6"/>
+        <v>2.61135248548173</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2844,6 +3163,37 @@
       <c r="H31">
         <v>7</v>
       </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7323504394669702</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4071649850663301</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2870,6 +3220,37 @@
       <c r="H32">
         <v>93</v>
       </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="7"/>
+        <v>38.259427275304802</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="6"/>
+        <v>40.337972522607998</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2904,27 +3285,27 @@
         <v>1.88448493812998</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" ref="L33:Q36" si="7">C33*1000</f>
+        <f t="shared" ref="L33:Q36" si="8">C33*1000</f>
         <v>1.1308609061891399</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74254971639088496</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2381542315198399</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7619143674709898</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.37774998723904</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0383362075020299</v>
       </c>
     </row>
@@ -2954,31 +3335,31 @@
         <v>7.6924945287083801E-4</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K36" si="8">B34*1000</f>
+        <f t="shared" ref="K34:K36" si="9">B34*1000</f>
         <v>0.37199516104463004</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40710472344960097</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.136105349793019</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.306044440931035</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50989743788810704</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.76924945287083801</v>
       </c>
     </row>
@@ -3008,31 +3389,31 @@
         <v>8.1669346645226804E-4</v>
       </c>
       <c r="K35" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40493729445487797</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" si="8"/>
-        <v>0.40493729445487797</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="7"/>
         <v>0.39543798443019695</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.166848593088542</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34476022149852698</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.552231801539944</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81669346645226804</v>
       </c>
     </row>
@@ -3062,35 +3443,36 @@
         <v>1.07968053203226E-2</v>
       </c>
       <c r="K36" s="1">
+        <f t="shared" si="9"/>
+        <v>7.2392112962079507</v>
+      </c>
+      <c r="L36" s="1">
         <f t="shared" si="8"/>
-        <v>7.2392112962079507</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="7"/>
         <v>3.2442810130999398</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8364586657326898</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2169852387917697</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.9296621524050392</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.8146228195721097</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.7968053203226</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>